--- a/data/trans_orig/IP09C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6782AB8B-5645-42E1-9A2F-090C06065868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C946872F-7000-4A16-AA34-5138EA61FCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6DE55212-FA0F-48A1-86A7-5D2A0CEB1A53}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9BBBA4B2-9F58-4CEB-AC9E-A00FFA2D4C45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
     <t>Alergia/Asma</t>
   </si>
   <si>
@@ -130,34 +160,34 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>Gripe/Resfriado/Bronquitis/Neumonia</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>Gastroenteritis/Gases/Digestivo</t>
@@ -181,34 +211,34 @@
     <t>8,35%</t>
   </si>
   <si>
-    <t>Gripe/Resfriado/Bronquitis/Neumonia</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>Varicela/Paperas/Sarampion</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>Otros</t>
@@ -226,42 +256,201 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>Varicela/Paperas/Sarampion</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
     <t>22,59%</t>
   </si>
   <si>
@@ -310,31 +499,31 @@
     <t>45,67%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
   </si>
   <si>
     <t>11,95%</t>
@@ -352,31 +541,19 @@
     <t>11,86%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>5,75%</t>
@@ -385,187 +562,37 @@
     <t>17,76%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
     <t>3,46%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>14,45%</t>
@@ -622,31 +649,31 @@
     <t>22,53%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
   </si>
   <si>
     <t>5,05%</t>
@@ -670,31 +697,25 @@
     <t>7,75%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>7,8%</t>
@@ -721,30 +742,30 @@
     <t>9,8%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
     <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2012 (Tasa respuesta: 11,91%)</t>
   </si>
   <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
     <t>9,03%</t>
   </si>
   <si>
@@ -787,25 +808,31 @@
     <t>8,02%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>9,43%</t>
@@ -832,31 +859,25 @@
     <t>15,32%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>9,75%</t>
@@ -883,25 +904,190 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>14,27%</t>
@@ -958,31 +1144,31 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>6,41%</t>
@@ -1009,31 +1195,10 @@
     <t>13,55%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>29,21%</t>
@@ -1063,169 +1228,31 @@
     <t>38,44%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>10,64%</t>
@@ -1279,31 +1306,25 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
   </si>
   <si>
     <t>6,58%</t>
@@ -1333,25 +1354,25 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>17,34%</t>
@@ -1375,30 +1396,30 @@
     <t>12,25%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
     <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2015 (Tasa respuesta: 6,07%)</t>
   </si>
   <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
     <t>6,35%</t>
   </si>
   <si>
@@ -1432,25 +1453,31 @@
     <t>11,07%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
   </si>
   <si>
     <t>11,55%</t>
@@ -1477,31 +1504,16 @@
     <t>18,73%</t>
   </si>
   <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>3,39%</t>
@@ -1525,16 +1537,136 @@
     <t>25,91%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>6,26%</t>
@@ -1573,10 +1705,28 @@
     <t>34,98%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>12,04%</t>
@@ -1603,30 +1753,6 @@
     <t>31,33%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
     <t>33,13%</t>
   </si>
   <si>
@@ -1651,130 +1777,25 @@
     <t>48,72%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>15,8%</t>
@@ -1825,25 +1846,28 @@
     <t>17,97%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
   </si>
   <si>
     <t>9,78%</t>
@@ -1867,28 +1891,25 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>15,19%</t>
@@ -1910,27 +1931,6 @@
   </si>
   <si>
     <t>29,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BA3532-4B3A-4219-8999-AE1004CCDDCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C610AC2-2812-4139-B701-92207330ABDD}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2440,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3198</v>
+        <v>4119</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2455,10 +2455,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1434</v>
+        <v>2090</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2470,10 +2470,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>4632</v>
+        <v>6209</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2491,10 +2491,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>2077</v>
+        <v>3198</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2506,10 +2506,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2428</v>
+        <v>1434</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2524,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4505</v>
+        <v>4632</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2542,10 +2542,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>4119</v>
+        <v>2077</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2557,10 +2557,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>2090</v>
+        <v>2428</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2572,10 +2572,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>6209</v>
+        <v>4505</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2593,97 +2593,97 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>1300</v>
+        <v>16254</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>1300</v>
+        <v>24142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>16254</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7889</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>24142</v>
+        <v>1300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>56</v>
@@ -2695,97 +2695,97 @@
         <v>57</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>673</v>
+        <v>2886</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>2979</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>673</v>
+        <v>5865</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2886</v>
+        <v>673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2979</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>5865</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>71</v>
@@ -2850,49 +2850,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>5290</v>
+        <v>725</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>720</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2238</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>7528</v>
+        <v>1445</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,49 +2901,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>9031</v>
+        <v>2608</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1456</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3564</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4063</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12595</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,46 +2955,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1323</v>
+        <v>1345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>2042</v>
+        <v>2131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>3364</v>
+        <v>3476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,46 +3003,46 @@
         <v>40</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>698</v>
+        <v>8249</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6754</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>654</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>22</v>
+      </c>
+      <c r="N15" s="7">
+        <v>15003</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="7">
-        <v>2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1352</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>103</v>
@@ -3051,13 +3051,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>5062</v>
+        <v>1879</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -3069,34 +3069,34 @@
         <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>6998</v>
+        <v>720</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2599</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12059</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,100 +3105,100 @@
         <v>57</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>1347</v>
+        <v>4105</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6225</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="7">
         <v>15</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
       <c r="N17" s="7">
-        <v>1347</v>
+        <v>10330</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>667</v>
+        <v>3969</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>1384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>667</v>
+        <v>5353</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>23417</v>
+        <v>22880</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>72</v>
@@ -3222,10 +3222,10 @@
         <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>15495</v>
+        <v>19390</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>72</v>
@@ -3237,10 +3237,10 @@
         <v>72</v>
       </c>
       <c r="M19" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>38912</v>
+        <v>42270</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>72</v>
@@ -3254,55 +3254,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>2608</v>
+        <v>1323</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1456</v>
+        <v>2042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>4063</v>
+        <v>3364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,49 +3311,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>1345</v>
+        <v>5290</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>2131</v>
+        <v>2238</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>3476</v>
+        <v>7528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3362,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>725</v>
+        <v>9031</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>720</v>
+        <v>3564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>1445</v>
+        <v>12595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,100 +3413,100 @@
         <v>40</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>1879</v>
+        <v>5062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>720</v>
+        <v>6998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N23" s="7">
-        <v>2599</v>
+        <v>12059</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>8249</v>
+        <v>698</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>6754</v>
+        <v>654</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>15003</v>
+        <v>1352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,97 +3515,97 @@
         <v>57</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>3969</v>
+        <v>667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>5353</v>
+        <v>667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>4105</v>
+        <v>1347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6225</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>10330</v>
+        <v>1347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>175</v>
@@ -3617,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7">
-        <v>22880</v>
+        <v>23417</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>72</v>
@@ -3632,10 +3632,10 @@
         <v>72</v>
       </c>
       <c r="H27" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I27" s="7">
-        <v>19390</v>
+        <v>15495</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>72</v>
@@ -3647,10 +3647,10 @@
         <v>72</v>
       </c>
       <c r="M27" s="7">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N27" s="7">
-        <v>42270</v>
+        <v>38912</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>72</v>
@@ -3670,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>11096</v>
+        <v>6167</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>176</v>
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>5127</v>
+        <v>4852</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>179</v>
@@ -3700,10 +3700,10 @@
         <v>181</v>
       </c>
       <c r="M28" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N28" s="7">
-        <v>16223</v>
+        <v>11019</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>182</v>
@@ -3721,10 +3721,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>12452</v>
+        <v>11096</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>185</v>
@@ -3736,10 +3736,10 @@
         <v>187</v>
       </c>
       <c r="H29" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>8124</v>
+        <v>5127</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>188</v>
@@ -3751,10 +3751,10 @@
         <v>190</v>
       </c>
       <c r="M29" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>20576</v>
+        <v>16223</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>191</v>
@@ -3772,10 +3772,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>6167</v>
+        <v>12452</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>194</v>
@@ -3787,10 +3787,10 @@
         <v>196</v>
       </c>
       <c r="H30" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>4852</v>
+        <v>8124</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>197</v>
@@ -3802,10 +3802,10 @@
         <v>199</v>
       </c>
       <c r="M30" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N30" s="7">
-        <v>11019</v>
+        <v>20576</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>200</v>
@@ -3823,91 +3823,91 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7">
-        <v>3877</v>
+        <v>29565</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I31" s="7">
-        <v>1374</v>
+        <v>21640</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="N31" s="7">
-        <v>5251</v>
+        <v>51205</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>29565</v>
+        <v>3877</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>21640</v>
+        <v>1374</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>215</v>
       </c>
       <c r="M32" s="7">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="N32" s="7">
-        <v>51205</v>
+        <v>5251</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>216</v>
@@ -3925,10 +3925,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" s="7">
-        <v>5989</v>
+        <v>7658</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>219</v>
@@ -3940,82 +3940,82 @@
         <v>221</v>
       </c>
       <c r="H33" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I33" s="7">
-        <v>1384</v>
+        <v>9204</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>222</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M33" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N33" s="7">
-        <v>7373</v>
+        <v>16862</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5989</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1384</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="7">
         <v>11</v>
       </c>
-      <c r="D34" s="7">
-        <v>7658</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" s="7">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7">
-        <v>9204</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K34" s="7" t="s">
+      <c r="N34" s="7">
+        <v>7373</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M34" s="7">
-        <v>25</v>
-      </c>
-      <c r="N34" s="7">
-        <v>16862</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>233</v>
@@ -4088,7 +4088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957C30A5-E0C2-4EE3-9A83-211D84710746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F332E51-6E11-4A81-A270-2DD2DE092E8A}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4206,10 +4206,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>3500</v>
+        <v>5748</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -4221,28 +4221,28 @@
         <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1502</v>
+        <v>2996</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>5003</v>
+        <v>8744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>240</v>
@@ -4257,40 +4257,40 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1422</v>
+        <v>3500</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>627</v>
+        <v>1502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>2050</v>
+        <v>5003</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -4308,43 +4308,43 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>5748</v>
+        <v>1422</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>627</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2996</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2050</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M6" s="7">
-        <v>13</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8744</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>254</v>
@@ -4359,10 +4359,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>3659</v>
+        <v>18705</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>256</v>
@@ -4374,10 +4374,10 @@
         <v>258</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>1839</v>
+        <v>20351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>259</v>
@@ -4389,67 +4389,67 @@
         <v>261</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>5498</v>
+        <v>39056</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>18705</v>
+        <v>3659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>20351</v>
+        <v>1839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>39056</v>
+        <v>5498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>272</v>
@@ -4461,76 +4461,76 @@
         <v>57</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>3780</v>
+        <v>1963</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2081</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2174</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>6</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4044</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M9" s="7">
-        <v>9</v>
-      </c>
-      <c r="N9" s="7">
-        <v>5954</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>1963</v>
+        <v>3780</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>282</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2081</v>
+        <v>2174</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>283</v>
@@ -4542,19 +4542,19 @@
         <v>285</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>4044</v>
+        <v>5954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,49 +4616,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>4269</v>
+        <v>3450</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1128</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2083</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4578</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6353</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,49 +4667,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6544</v>
+        <v>2521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3513</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6034</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2046</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8590</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,49 +4718,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1997</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>675</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>2134</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="N14" s="7">
+        <v>2672</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4447</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6580</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,100 +4769,100 @@
         <v>40</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>1919</v>
+        <v>11557</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10643</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M15" s="7">
+        <v>30</v>
+      </c>
+      <c r="N15" s="7">
+        <v>22200</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1322</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M15" s="7">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3241</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>6319</v>
+        <v>787</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2802</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3589</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5352</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M16" s="7">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11671</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,100 +4871,100 @@
         <v>57</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>8743</v>
+        <v>3433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>4710</v>
+        <v>2897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>13453</v>
+        <v>6329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>4241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>4443</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>8684</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,10 +4973,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>29928</v>
+        <v>27985</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>72</v>
@@ -4988,10 +4988,10 @@
         <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>19960</v>
+        <v>26102</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>72</v>
@@ -5003,10 +5003,10 @@
         <v>72</v>
       </c>
       <c r="M19" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>49888</v>
+        <v>54087</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>72</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5029,46 +5029,46 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>2521</v>
+        <v>2134</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4447</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3513</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>9</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6580</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6034</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +5077,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>1997</v>
+        <v>4269</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2083</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>675</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>2672</v>
+        <v>6353</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,49 +5128,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>3450</v>
+        <v>6544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>1128</v>
+        <v>2046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>4578</v>
+        <v>8590</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,100 +5179,100 @@
         <v>40</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>787</v>
+        <v>6319</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>2802</v>
+        <v>5352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N23" s="7">
-        <v>3589</v>
+        <v>11671</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>11557</v>
+        <v>1919</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>10643</v>
+        <v>1322</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>25</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M24" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>22200</v>
+        <v>3241</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,76 +5281,76 @@
         <v>57</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>4241</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>4443</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>8684</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>3433</v>
+        <v>8743</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>389</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>2897</v>
+        <v>4710</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>390</v>
@@ -5362,10 +5362,10 @@
         <v>392</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N26" s="7">
-        <v>6329</v>
+        <v>13453</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>393</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7">
-        <v>27985</v>
+        <v>29928</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>72</v>
@@ -5398,10 +5398,10 @@
         <v>72</v>
       </c>
       <c r="H27" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I27" s="7">
-        <v>26102</v>
+        <v>19960</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>72</v>
@@ -5413,10 +5413,10 @@
         <v>72</v>
       </c>
       <c r="M27" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N27" s="7">
-        <v>54087</v>
+        <v>49888</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>72</v>
@@ -5436,10 +5436,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="7">
-        <v>10291</v>
+        <v>11331</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>396</v>
@@ -5451,10 +5451,10 @@
         <v>398</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>7098</v>
+        <v>8571</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>399</v>
@@ -5466,10 +5466,10 @@
         <v>401</v>
       </c>
       <c r="M28" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N28" s="7">
-        <v>17389</v>
+        <v>19902</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>402</v>
@@ -5487,49 +5487,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>9963</v>
+        <v>10291</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>405</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>3348</v>
+        <v>7098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>13312</v>
+        <v>17389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,25 +5538,25 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>11331</v>
+        <v>9963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>415</v>
       </c>
       <c r="H30" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>8571</v>
+        <v>3348</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>416</v>
@@ -5568,10 +5568,10 @@
         <v>418</v>
       </c>
       <c r="M30" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N30" s="7">
-        <v>19902</v>
+        <v>13312</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>419</v>
@@ -5589,91 +5589,91 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D31" s="7">
-        <v>6365</v>
+        <v>36581</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>422</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>53</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36347</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H31" s="7">
-        <v>9</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5963</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>105</v>
+      </c>
+      <c r="N31" s="7">
+        <v>72927</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="M31" s="7">
-        <v>18</v>
-      </c>
-      <c r="N31" s="7">
-        <v>12328</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>36581</v>
+        <v>6365</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>9</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5963</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H32" s="7">
-        <v>53</v>
-      </c>
-      <c r="I32" s="7">
-        <v>36347</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>434</v>
       </c>
       <c r="M32" s="7">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>72927</v>
+        <v>12328</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>435</v>
@@ -5691,100 +5691,100 @@
         <v>57</v>
       </c>
       <c r="C33" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D33" s="7">
-        <v>16764</v>
+        <v>5396</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>438</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>439</v>
       </c>
       <c r="H33" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>11327</v>
+        <v>4978</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7">
+        <v>15</v>
+      </c>
+      <c r="N33" s="7">
+        <v>10374</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="M33" s="7">
-        <v>41</v>
-      </c>
-      <c r="N33" s="7">
-        <v>28091</v>
-      </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D34" s="7">
-        <v>5396</v>
+        <v>16764</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>445</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>363</v>
+        <v>69</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>446</v>
       </c>
       <c r="H34" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I34" s="7">
-        <v>4978</v>
+        <v>11327</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>315</v>
+        <v>447</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M34" s="7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N34" s="7">
-        <v>10374</v>
+        <v>28091</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>451</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD80A40-3381-464A-9804-05D18B1E59CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B392834-588C-40B8-863C-90D50CCBEB43}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5972,43 +5972,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3075</v>
+        <v>2103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1866</v>
+        <v>670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>4941</v>
+        <v>2773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>457</v>
+        <v>255</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>458</v>
@@ -6023,49 +6023,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>759</v>
+        <v>1866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>759</v>
+        <v>4941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,46 +6074,46 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2103</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>464</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>465</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>467</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>468</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2773</v>
+        <v>759</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>469</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>469</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>470</v>
@@ -6125,10 +6125,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>2217</v>
+        <v>9291</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>471</v>
@@ -6140,76 +6140,76 @@
         <v>473</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>659</v>
+        <v>7959</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>474</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>475</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>2876</v>
+        <v>17250</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>9291</v>
+        <v>2217</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>7959</v>
+        <v>659</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>484</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>17250</v>
+        <v>2876</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>485</v>
@@ -6227,97 +6227,97 @@
         <v>57</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2502</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2402</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1080</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="M9" s="7">
-        <v>8</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4904</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1080</v>
+        <v>2402</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4904</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1080</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>498</v>
@@ -6385,43 +6385,43 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>848</v>
+        <v>708</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>499</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>500</v>
       </c>
       <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>699</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
-        <v>1446</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
       <c r="N12" s="7">
-        <v>2294</v>
+        <v>1408</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>503</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>504</v>
@@ -6433,49 +6433,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3710</v>
+        <v>3240</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>505</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>506</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1234</v>
+        <v>2534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>4945</v>
+        <v>5775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,49 +6484,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>512</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>515</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>517</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,100 +6535,100 @@
         <v>40</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1631</v>
+        <v>1888</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>520</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>2634</v>
+        <v>4637</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>516</v>
+        <v>332</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="M15" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15" s="7">
-        <v>4264</v>
+        <v>6525</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2865</v>
+        <v>584</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>3951</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>6816</v>
+        <v>584</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>526</v>
+        <v>32</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>527</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,100 +6637,100 @@
         <v>57</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>4485</v>
+        <v>1562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>529</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>646</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3891</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2207</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="M17" s="7">
-        <v>12</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8376</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>3887</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>535</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>1790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>537</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>540</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,7 +6742,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>13539</v>
+        <v>12606</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>72</v>
@@ -6754,10 +6754,10 @@
         <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>13157</v>
+        <v>13559</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>72</v>
@@ -6769,10 +6769,10 @@
         <v>72</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>26696</v>
+        <v>26165</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>72</v>
@@ -6786,55 +6786,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3240</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>537</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>539</v>
+        <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>540</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>5775</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>542</v>
+        <v>25</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>543</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,46 +6846,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1446</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2294</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3252</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3989</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,49 +6894,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>708</v>
+        <v>3710</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1234</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4945</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>699</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1408</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,100 +6945,100 @@
         <v>40</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>584</v>
+        <v>2865</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3951</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>584</v>
+        <v>6816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1631</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="7">
-        <v>1888</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
       <c r="I24" s="7">
-        <v>4637</v>
+        <v>2634</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>379</v>
+        <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>434</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>6525</v>
+        <v>4264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,97 +7047,97 @@
         <v>57</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>3887</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>567</v>
+        <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>568</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1790</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>5677</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>573</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>1562</v>
+        <v>4485</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3891</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>646</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>576</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N26" s="7">
-        <v>2207</v>
+        <v>8376</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>577</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>578</v>
@@ -7152,7 +7152,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="7">
-        <v>12606</v>
+        <v>13539</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>72</v>
@@ -7164,10 +7164,10 @@
         <v>72</v>
       </c>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I27" s="7">
-        <v>13559</v>
+        <v>13157</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>72</v>
@@ -7179,10 +7179,10 @@
         <v>72</v>
       </c>
       <c r="M27" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N27" s="7">
-        <v>26165</v>
+        <v>26696</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>72</v>
@@ -7202,10 +7202,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>7163</v>
+        <v>2811</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>579</v>
@@ -7214,37 +7214,37 @@
         <v>580</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>5846</v>
+        <v>1369</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>581</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>6</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4180</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="M28" s="7">
-        <v>19</v>
-      </c>
-      <c r="N28" s="7">
-        <v>13010</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,49 +7253,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>4447</v>
+        <v>7163</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="G29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="7">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5846</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="H29" s="7">
-        <v>7</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5246</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>19</v>
+      </c>
+      <c r="N29" s="7">
+        <v>13010</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="M29" s="7">
-        <v>13</v>
-      </c>
-      <c r="N29" s="7">
-        <v>9693</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,40 +7304,40 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>2811</v>
+        <v>4447</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5246</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1369</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>598</v>
       </c>
       <c r="M30" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>4180</v>
+        <v>9693</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>599</v>
@@ -7355,10 +7355,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D31" s="7">
-        <v>4432</v>
+        <v>14044</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>602</v>
@@ -7370,10 +7370,10 @@
         <v>604</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I31" s="7">
-        <v>3293</v>
+        <v>16548</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>605</v>
@@ -7382,67 +7382,67 @@
         <v>606</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>285</v>
+        <v>607</v>
       </c>
       <c r="M31" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N31" s="7">
-        <v>7725</v>
+        <v>30592</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>189</v>
+        <v>554</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>14044</v>
+        <v>4432</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H32" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>16548</v>
+        <v>3293</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>614</v>
+        <v>277</v>
       </c>
       <c r="M32" s="7">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N32" s="7">
-        <v>30592</v>
+        <v>7725</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>510</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>615</v>
@@ -7457,40 +7457,40 @@
         <v>57</v>
       </c>
       <c r="C33" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>10875</v>
+        <v>1562</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>617</v>
+        <v>25</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1725</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="H33" s="7">
-        <v>13</v>
-      </c>
-      <c r="I33" s="7">
-        <v>8083</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="M33" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>18958</v>
+        <v>3287</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>621</v>
@@ -7505,43 +7505,43 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>1562</v>
+        <v>10875</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>365</v>
+        <v>625</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I34" s="7">
-        <v>1725</v>
+        <v>8083</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>627</v>
+        <v>16</v>
       </c>
       <c r="M34" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N34" s="7">
-        <v>3287</v>
+        <v>18958</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>628</v>

--- a/data/trans_orig/IP09C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09C_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F8BBAD-D0EF-4C75-AB1E-5E9A4812DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED660CF6-9B99-402F-8FB3-326624739C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD99D8D5-8ED1-4D88-BAF5-18BA0F675688}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A35907C-6B03-48C1-B300-CF27BDFF1BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="725">
   <si>
     <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2007 (Tasa respuesta: 9,08%)</t>
   </si>
@@ -94,34 +94,34 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>22,2%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>35,34%</t>
+    <t>39,4%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>Gastroenteritis/Gases/Digestivo</t>
   </si>
   <si>
-    <t>26,39%</t>
+    <t>26,13%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>13,69%</t>
   </si>
   <si>
     <t>Gripe/Resfriado/Bronquitis/Neumonia</t>
@@ -130,28 +130,28 @@
     <t>63,32%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>55,73%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>Esguince/Luxacion/Rotura</t>
@@ -160,1966 +160,1987 @@
     <t>4,75%</t>
   </si>
   <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Alergia/Asma</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>Alergia/Asma</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2012 (Tasa respuesta: 11,91%)</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2016 (Tasa respuesta: 6,07%)</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2012 (Tasa respuesta: 11,91%)</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2015 (Tasa respuesta: 6,07%)</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>43,52%</t>
   </si>
   <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>34,98%</t>
@@ -2128,73 +2149,70 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>43,71%</t>
+    <t>44,46%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
+    <t>19,66%</t>
+  </si>
+  <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>24,16%</t>
+    <t>24,76%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>23,08%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C67E57-9D6A-4E39-850F-D883778411FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AAC8E7-39D1-428D-8827-921775DBE1C7}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3428,10 +3446,10 @@
         <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3464,13 @@
         <v>2664</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3461,13 +3479,13 @@
         <v>720</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -3631,13 +3649,13 @@
         <v>712</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3670,13 @@
         <v>1281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3667,13 +3685,13 @@
         <v>1374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3682,13 +3700,13 @@
         <v>2655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3721,13 @@
         <v>4819</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3718,13 +3736,13 @@
         <v>4460</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3733,13 +3751,13 @@
         <v>9278</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3772,13 @@
         <v>5047</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3769,13 +3787,13 @@
         <v>3441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3784,13 +3802,13 @@
         <v>8488</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3823,13 @@
         <v>2571</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3820,13 +3838,13 @@
         <v>2238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -3835,13 +3853,13 @@
         <v>4808</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3892,7 +3910,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3966,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3960,13 +3978,13 @@
         <v>1347</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3981,7 +3999,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3990,13 +4008,13 @@
         <v>1347</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4029,13 @@
         <v>667</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4032,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4041,13 +4059,13 @@
         <v>667</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4080,13 @@
         <v>698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4083,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -4092,13 +4110,13 @@
         <v>698</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4131,13 @@
         <v>3787</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4128,13 +4146,13 @@
         <v>4356</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4143,13 +4161,13 @@
         <v>8143</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4182,13 @@
         <v>5328</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4179,13 +4197,13 @@
         <v>1476</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -4194,13 +4212,13 @@
         <v>6804</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4233,13 @@
         <v>3298</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4236,7 +4254,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -4245,13 +4263,13 @@
         <v>3298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4284,13 @@
         <v>1323</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4281,13 +4299,13 @@
         <v>2042</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -4296,13 +4314,13 @@
         <v>3364</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4388,13 @@
         <v>5989</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -4385,13 +4403,13 @@
         <v>1384</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -4400,13 +4418,13 @@
         <v>7373</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4439,13 @@
         <v>7658</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -4436,13 +4454,13 @@
         <v>9204</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -4451,13 +4469,13 @@
         <v>16862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4490,13 @@
         <v>3877</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4487,13 +4505,13 @@
         <v>1374</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -4502,13 +4520,13 @@
         <v>5251</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4541,13 @@
         <v>29565</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H39" s="7">
         <v>33</v>
@@ -4538,13 +4556,13 @@
         <v>21640</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M39" s="7">
         <v>77</v>
@@ -4553,13 +4571,13 @@
         <v>51205</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4592,13 @@
         <v>12452</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H40" s="7">
         <v>12</v>
@@ -4589,13 +4607,13 @@
         <v>8124</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M40" s="7">
         <v>30</v>
@@ -4604,13 +4622,13 @@
         <v>20576</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4643,13 @@
         <v>11096</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4640,13 +4658,13 @@
         <v>5127</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M41" s="7">
         <v>24</v>
@@ -4655,13 +4673,13 @@
         <v>16223</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4694,13 @@
         <v>6167</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -4691,13 +4709,13 @@
         <v>4852</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -4706,13 +4724,13 @@
         <v>11019</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,7 +4786,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4788,7 +4806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518B1057-F09D-4463-9536-6E6E69E39BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DD2258-7AEB-4EA9-BCC0-1EB62C1AC3B3}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4805,7 +4823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4912,13 +4930,13 @@
         <v>2524</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4927,13 +4945,13 @@
         <v>1694</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4942,13 +4960,13 @@
         <v>4218</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4978,13 +4996,13 @@
         <v>1318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4993,13 +5011,13 @@
         <v>1318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5032,13 @@
         <v>3659</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5029,13 +5047,13 @@
         <v>1212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5044,13 +5062,13 @@
         <v>4871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5083,13 @@
         <v>9763</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -5080,13 +5098,13 @@
         <v>13626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5095,13 +5113,13 @@
         <v>23389</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5131,13 +5149,13 @@
         <v>627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5146,13 +5164,13 @@
         <v>627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5185,13 @@
         <v>1954</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5188,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5197,13 +5215,13 @@
         <v>1954</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5236,13 @@
         <v>4386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5233,13 +5251,13 @@
         <v>1254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5248,13 +5266,13 @@
         <v>5640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5340,13 @@
         <v>3331</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5337,13 +5355,13 @@
         <v>2741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5352,13 +5370,13 @@
         <v>6072</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5391,13 @@
         <v>5396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5388,13 +5406,13 @@
         <v>2904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5403,13 +5421,13 @@
         <v>8300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5442,13 @@
         <v>787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -5439,13 +5457,13 @@
         <v>2682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5454,13 +5472,13 @@
         <v>3469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5493,13 @@
         <v>16748</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -5490,13 +5508,13 @@
         <v>12790</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -5505,13 +5523,13 @@
         <v>29538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5544,13 @@
         <v>3419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5547,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5556,13 +5574,13 @@
         <v>3420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5595,13 @@
         <v>2623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5592,13 +5610,13 @@
         <v>2972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5610,10 +5628,10 @@
         <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5646,13 @@
         <v>4812</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5643,13 +5661,13 @@
         <v>2870</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5658,13 +5676,13 @@
         <v>7681</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5750,13 @@
         <v>2855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5747,13 +5765,13 @@
         <v>2182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5762,13 +5780,13 @@
         <v>5037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5798,13 +5816,13 @@
         <v>756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -5813,13 +5831,13 @@
         <v>756</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>377</v>
+        <v>228</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5852,13 @@
         <v>625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5849,13 +5867,13 @@
         <v>1403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5864,13 +5882,13 @@
         <v>2028</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5903,13 @@
         <v>8267</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5900,13 +5918,13 @@
         <v>7423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -5915,13 +5933,13 @@
         <v>15690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5951,13 +5969,13 @@
         <v>2066</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>405</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -5966,13 +5984,13 @@
         <v>2066</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6005,13 @@
         <v>1445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6002,13 +6020,13 @@
         <v>2043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6017,13 +6035,13 @@
         <v>3488</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6053,13 +6071,13 @@
         <v>2981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -6068,13 +6086,13 @@
         <v>2981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6148,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6142,13 +6160,13 @@
         <v>8055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -6157,13 +6175,13 @@
         <v>4710</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -6172,13 +6190,13 @@
         <v>12764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>432</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6214,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6229,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6262,13 @@
         <v>1294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6259,13 +6277,13 @@
         <v>665</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6274,13 +6292,13 @@
         <v>1960</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6313,13 @@
         <v>1802</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -6310,13 +6328,13 @@
         <v>2508</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -6325,13 +6343,13 @@
         <v>4310</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6364,13 @@
         <v>6544</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6361,13 +6379,13 @@
         <v>656</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -6376,13 +6394,13 @@
         <v>7200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6415,13 @@
         <v>4270</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -6412,13 +6430,13 @@
         <v>2083</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -6427,13 +6445,13 @@
         <v>6353</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6466,13 @@
         <v>2134</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6463,13 +6481,13 @@
         <v>1465</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -6478,13 +6496,13 @@
         <v>3599</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6570,13 @@
         <v>16764</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -6567,13 +6585,13 @@
         <v>11327</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M36" s="7">
         <v>41</v>
@@ -6582,13 +6600,13 @@
         <v>28091</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6621,13 @@
         <v>5396</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6618,13 +6636,13 @@
         <v>4978</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>211</v>
+        <v>482</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -6633,13 +6651,13 @@
         <v>10374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6672,13 @@
         <v>6365</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -6669,13 +6687,13 @@
         <v>5963</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -6684,13 +6702,13 @@
         <v>12328</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>483</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6723,13 @@
         <v>36581</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H39" s="7">
         <v>53</v>
@@ -6720,13 +6738,13 @@
         <v>36347</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="M39" s="7">
         <v>105</v>
@@ -6735,13 +6753,13 @@
         <v>72927</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,10 +6777,10 @@
         <v>109</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -6774,10 +6792,10 @@
         <v>495</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M40" s="7">
         <v>18</v>
@@ -6786,13 +6804,13 @@
         <v>13312</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6825,13 @@
         <v>10291</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -6822,13 +6840,13 @@
         <v>7098</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="M41" s="7">
         <v>24</v>
@@ -6837,13 +6855,13 @@
         <v>17389</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>471</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6876,13 @@
         <v>11331</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>376</v>
+        <v>522</v>
       </c>
       <c r="H42" s="7">
         <v>13</v>
@@ -6873,13 +6891,13 @@
         <v>8571</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>512</v>
+        <v>192</v>
       </c>
       <c r="M42" s="7">
         <v>29</v>
@@ -6888,13 +6906,13 @@
         <v>19902</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6968,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6970,7 +6988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF9B46-5C43-4ADE-BE17-47C01E910E31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637BCAB2-1A49-4D9E-A34C-597E76218C04}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6987,7 +7005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7094,13 +7112,13 @@
         <v>652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -7109,13 +7127,13 @@
         <v>1947</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -7124,13 +7142,13 @@
         <v>2600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>534</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,7 +7169,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7160,13 +7178,13 @@
         <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>538</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7175,13 +7193,13 @@
         <v>536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>525</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7214,13 @@
         <v>820</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7211,13 +7229,13 @@
         <v>659</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7226,13 +7244,13 @@
         <v>1479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7265,13 @@
         <v>5892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -7262,13 +7280,13 @@
         <v>3926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -7277,13 +7295,13 @@
         <v>9818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,7 +7322,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7319,7 +7337,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7349,13 +7367,13 @@
         <v>2383</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7364,13 +7382,13 @@
         <v>1218</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7379,13 +7397,13 @@
         <v>3601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7418,13 @@
         <v>1457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7415,13 +7433,13 @@
         <v>670</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>564</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -7430,13 +7448,13 @@
         <v>2127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>552</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7522,13 @@
         <v>5067</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>555</v>
+        <v>132</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7519,13 +7537,13 @@
         <v>1521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>569</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -7534,13 +7552,13 @@
         <v>6588</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7573,13 @@
         <v>1562</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7570,13 +7588,13 @@
         <v>1189</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>565</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7585,13 +7603,13 @@
         <v>2751</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>566</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7624,13 @@
         <v>1981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7627,7 +7645,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -7636,13 +7654,13 @@
         <v>1981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7675,13 @@
         <v>4550</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -7672,13 +7690,13 @@
         <v>8177</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -7687,13 +7705,13 @@
         <v>12727</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7726,13 @@
         <v>737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7723,13 +7741,13 @@
         <v>2464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>585</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7738,13 +7756,13 @@
         <v>3201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>588</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7777,13 @@
         <v>3932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>602</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7774,13 +7792,13 @@
         <v>2063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -7789,13 +7807,13 @@
         <v>5995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7828,13 @@
         <v>1354</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -7825,13 +7843,13 @@
         <v>699</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -7840,13 +7858,13 @@
         <v>2053</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,13 +7932,13 @@
         <v>2976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7929,13 +7947,13 @@
         <v>1516</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7944,13 +7962,13 @@
         <v>4491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +7989,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7986,7 +8004,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8001,7 +8019,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,7 +8040,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -8031,13 +8049,13 @@
         <v>1905</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8046,13 +8064,13 @@
         <v>1905</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8085,13 @@
         <v>737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8082,13 +8100,13 @@
         <v>493</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>630</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -8097,13 +8115,13 @@
         <v>1230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>621</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,7 +8142,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8133,13 +8151,13 @@
         <v>2782</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -8148,13 +8166,13 @@
         <v>2782</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8187,13 @@
         <v>848</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -8184,13 +8202,13 @@
         <v>1119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -8199,13 +8217,13 @@
         <v>1967</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,7 +8244,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8241,7 +8259,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8256,7 +8274,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,7 +8330,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8324,13 +8342,13 @@
         <v>2179</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -8339,13 +8357,13 @@
         <v>3099</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8354,13 +8372,13 @@
         <v>5279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8396,7 +8414,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8411,7 +8429,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>644</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8444,13 @@
         <v>1630</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8441,13 +8459,13 @@
         <v>729</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>657</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8456,13 +8474,13 @@
         <v>2360</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8495,13 @@
         <v>2865</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>598</v>
+        <v>663</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>652</v>
+        <v>355</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -8492,13 +8510,13 @@
         <v>3951</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -8507,13 +8525,13 @@
         <v>6816</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>111</v>
+        <v>668</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8546,13 @@
         <v>3710</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>671</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8549,7 +8567,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8558,13 +8576,13 @@
         <v>3710</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>661</v>
+        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>662</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,13 +8612,13 @@
         <v>1446</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -8609,13 +8627,13 @@
         <v>1446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,7 +8669,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8666,7 +8684,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>644</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,13 +8752,13 @@
         <v>10875</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -8749,13 +8767,13 @@
         <v>8083</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>669</v>
+        <v>456</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -8764,13 +8782,13 @@
         <v>18958</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8785,13 +8803,13 @@
         <v>1562</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>673</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -8800,13 +8818,13 @@
         <v>1725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -8815,13 +8833,13 @@
         <v>3287</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8836,13 +8854,13 @@
         <v>4432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>682</v>
+        <v>96</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>354</v>
+        <v>691</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -8851,13 +8869,13 @@
         <v>3293</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>306</v>
+        <v>692</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -8866,13 +8884,13 @@
         <v>7725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>687</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8887,13 +8905,13 @@
         <v>14044</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>689</v>
+        <v>646</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="H39" s="7">
         <v>26</v>
@@ -8902,13 +8920,13 @@
         <v>16548</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="M39" s="7">
         <v>47</v>
@@ -8917,13 +8935,13 @@
         <v>30592</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8956,13 @@
         <v>4447</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>194</v>
+        <v>705</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -8953,13 +8971,13 @@
         <v>5246</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="M40" s="7">
         <v>13</v>
@@ -8968,13 +8986,13 @@
         <v>9693</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,13 +9007,13 @@
         <v>7163</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -9004,13 +9022,13 @@
         <v>5846</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>707</v>
+        <v>489</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="M41" s="7">
         <v>19</v>
@@ -9019,13 +9037,13 @@
         <v>13010</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,13 +9058,13 @@
         <v>2811</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -9055,13 +9073,13 @@
         <v>1369</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>714</v>
+        <v>413</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -9070,13 +9088,13 @@
         <v>4180</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,7 +9150,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
